--- a/Stomatal analysis.xlsx
+++ b/Stomatal analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rxf568\Dropbox\Peru - Individual Tree Project\Stomatal peels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfortier\Dropbox\Peru - Individual Tree Project\Stomatal peels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6855921C-6DA2-44D4-8675-EF74E9D0A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3CC8B3-1029-49BF-9686-75646C59C761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="795" windowWidth="23190" windowHeight="13845" activeTab="1" xr2:uid="{536B3915-2A0A-4F9E-8541-D2F57C94A251}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{536B3915-2A0A-4F9E-8541-D2F57C94A251}"/>
   </bookViews>
   <sheets>
     <sheet name="DRY" sheetId="7" r:id="rId1"/>
@@ -41524,7 +41524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B8B5C9-1B2D-4A7C-8BE6-4EC5FCED78D2}">
   <dimension ref="A1:B651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
@@ -62791,8 +62791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8890FA9-4FC9-44D5-A8BF-1383FF4C5A3E}">
   <dimension ref="A1:E1451"/>
   <sheetViews>
-    <sheetView topLeftCell="A1111" workbookViewId="0">
-      <selection activeCell="B1127" sqref="B1127"/>
+    <sheetView tabSelected="1" topLeftCell="A1055" workbookViewId="0">
+      <selection activeCell="C1079" sqref="C1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
